--- a/Reduced Person Frequency/reduced-person-frequency.xlsx
+++ b/Reduced Person Frequency/reduced-person-frequency.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis\Documents\GitHub\Endless-Sky-Plugins\Reduced Person Frequency\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFB517C1-077F-4BC0-9C9D-777D7F9E9A45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437ACDD1-2993-4215-A36D-59BFBAB1BCE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="585" windowWidth="27345" windowHeight="20415" xr2:uid="{C3DF2A2D-949F-45DE-8691-6EFA1244CAAC}"/>
+    <workbookView xWindow="2730" yWindow="1185" windowWidth="29160" windowHeight="20415" xr2:uid="{C3DF2A2D-949F-45DE-8691-6EFA1244CAAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Avg Minutes Btwn Appearances</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>/10</t>
+  </si>
+  <si>
+    <t>/50</t>
+  </si>
+  <si>
+    <t>/20</t>
+  </si>
+  <si>
+    <t>Relative Freq</t>
   </si>
 </sst>
 </file>
@@ -101,9 +110,6 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -111,6 +117,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,13 +434,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF921B4-99D3-4726-AACE-F0D37FE23F47}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,44 +448,61 @@
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="3.85546875" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -488,23 +514,40 @@
         <v>160</v>
       </c>
       <c r="D3">
+        <f>B3/25</f>
+        <v>64</v>
+      </c>
+      <c r="E3">
+        <f>B3/50</f>
+        <v>32</v>
+      </c>
+      <c r="F3">
         <f>B3/100</f>
         <v>16</v>
       </c>
-      <c r="E3" s="5">
+      <c r="G3" s="4">
         <f>10/(B3/(B$5+1000))</f>
         <v>16.875</v>
       </c>
-      <c r="F3" s="5">
+      <c r="H3" s="4">
         <f>10/(C3/(C$5+1000))</f>
         <v>78.75</v>
       </c>
-      <c r="G3" s="5">
+      <c r="I3" s="4">
         <f>10/(D3/(D$5+1000))</f>
+        <v>181.875</v>
+      </c>
+      <c r="J3" s="4">
+        <f>10/(E3/(E$5+1000))</f>
+        <v>353.75</v>
+      </c>
+      <c r="K3" s="4">
+        <f>10/(F3/(F$5+1000))</f>
         <v>697.5</v>
       </c>
+      <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -515,23 +558,37 @@
         <v>100</v>
       </c>
       <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
         <f>B4</f>
         <v>100</v>
       </c>
-      <c r="E4" s="5">
+      <c r="G4" s="4">
         <f>10/(B4/(B$5+1000))</f>
         <v>270</v>
       </c>
-      <c r="F4" s="5">
-        <f t="shared" ref="F4:G5" si="0">10/(C4/(C$5+1000))</f>
+      <c r="H4" s="4">
+        <f>10/(C4/(C$5+1000))</f>
         <v>126</v>
       </c>
-      <c r="G4" s="5">
-        <f t="shared" si="0"/>
+      <c r="I4" s="4">
+        <f>10/(D4/(D$5+1000))</f>
+        <v>116.4</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" ref="J4:J5" si="0">10/(E4/(E$5+1000))</f>
+        <v>113.2</v>
+      </c>
+      <c r="K4" s="4">
+        <f>10/(F4/(F$5+1000))</f>
         <v>111.6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -545,25 +602,66 @@
       </c>
       <c r="D5">
         <f>SUM(D3:D4)</f>
+        <v>164</v>
+      </c>
+      <c r="E5">
+        <f>SUM(E3:E4)</f>
+        <v>132</v>
+      </c>
+      <c r="F5">
+        <f>SUM(F3:F4)</f>
         <v>116</v>
       </c>
-      <c r="E5" s="5">
+      <c r="G5" s="4">
         <f>10/(B5/(B$5+1000))</f>
         <v>15.882352941176469</v>
       </c>
-      <c r="F5" s="5">
+      <c r="H5" s="4">
+        <f>10/(C5/(C$5+1000))</f>
+        <v>48.461538461538467</v>
+      </c>
+      <c r="I5" s="4">
+        <f>10/(D5/(D$5+1000))</f>
+        <v>70.975609756097555</v>
+      </c>
+      <c r="J5" s="4">
         <f t="shared" si="0"/>
-        <v>48.461538461538467</v>
-      </c>
-      <c r="G5" s="5">
-        <f t="shared" si="0"/>
+        <v>85.757575757575765</v>
+      </c>
+      <c r="K5" s="4">
+        <f>10/(F5/(F$5+1000))</f>
         <v>96.206896551724142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4">
+        <f>G3/$G3</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <f>H3/$G3</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="I7" s="4">
+        <f>I3/$G3</f>
+        <v>10.777777777777779</v>
+      </c>
+      <c r="J7" s="4">
+        <f>J3/$G3</f>
+        <v>20.962962962962962</v>
+      </c>
+      <c r="K7" s="4">
+        <f>K3/$G3</f>
+        <v>41.333333333333336</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Reduced Person Frequency/reduced-person-frequency.xlsx
+++ b/Reduced Person Frequency/reduced-person-frequency.xlsx
@@ -1,37 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis\Documents\GitHub\Endless-Sky-Plugins\Reduced Person Frequency\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437ACDD1-2993-4215-A36D-59BFBAB1BCE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96DCD65-A867-4167-8991-D9CB6DA5338C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="1185" windowWidth="29160" windowHeight="20415" xr2:uid="{C3DF2A2D-949F-45DE-8691-6EFA1244CAAC}"/>
+    <workbookView xWindow="21480" yWindow="3975" windowWidth="16230" windowHeight="15540" xr2:uid="{C3DF2A2D-949F-45DE-8691-6EFA1244CAAC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Odds" sheetId="1" r:id="rId1"/>
+    <sheet name="Persons" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Persons!$A$1:$C$12</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Avg Minutes Btwn Appearances</t>
   </si>
@@ -64,6 +62,57 @@
   </si>
   <si>
     <t>Relative Freq</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Michael Zahniser</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Cap'n Pester</t>
+  </si>
+  <si>
+    <t>Marauding Max</t>
+  </si>
+  <si>
+    <t>Captain Nate</t>
+  </si>
+  <si>
+    <t>Tranquility</t>
+  </si>
+  <si>
+    <t>Local God</t>
+  </si>
+  <si>
+    <t>Indigenous</t>
+  </si>
+  <si>
+    <t>Subsidurial</t>
+  </si>
+  <si>
+    <t>Prototype B3-CC4</t>
+  </si>
+  <si>
+    <t>Rais Iris XVIII</t>
+  </si>
+  <si>
+    <t>Zitchas</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>Power of the People</t>
   </si>
 </sst>
 </file>
@@ -434,13 +483,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF921B4-99D3-4726-AACE-F0D37FE23F47}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,11 +499,13 @@
     <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="3.85546875" customWidth="1"/>
     <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
@@ -462,15 +513,17 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -486,73 +539,87 @@
       <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1600</v>
+        <v>3800</v>
       </c>
       <c r="C3">
         <f>B3/10</f>
-        <v>160</v>
+        <v>380</v>
       </c>
       <c r="D3">
         <f>B3/25</f>
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="E3">
         <f>B3/50</f>
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F3">
         <f>B3/100</f>
-        <v>16</v>
-      </c>
-      <c r="G3" s="4">
+        <v>38</v>
+      </c>
+      <c r="G3">
+        <f>B3/20</f>
+        <v>190</v>
+      </c>
+      <c r="H3" s="4">
         <f>10/(B3/(B$5+1000))</f>
-        <v>16.875</v>
-      </c>
-      <c r="H3" s="4">
+        <v>15.263157894736842</v>
+      </c>
+      <c r="I3" s="4">
         <f>10/(C3/(C$5+1000))</f>
-        <v>78.75</v>
-      </c>
-      <c r="I3" s="4">
+        <v>38.94736842105263</v>
+      </c>
+      <c r="J3" s="4">
         <f>10/(D3/(D$5+1000))</f>
-        <v>181.875</v>
-      </c>
-      <c r="J3" s="4">
+        <v>82.368421052631589</v>
+      </c>
+      <c r="K3" s="4">
         <f>10/(E3/(E$5+1000))</f>
-        <v>353.75</v>
-      </c>
-      <c r="K3" s="4">
+        <v>154.73684210526315</v>
+      </c>
+      <c r="L3" s="4">
         <f>10/(F3/(F$5+1000))</f>
-        <v>697.5</v>
-      </c>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>536.31578947368416</v>
+      </c>
+      <c r="M3" s="4">
+        <f>10/(G3/(G$5+1000))</f>
+        <v>75.78947368421052</v>
+      </c>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -565,105 +632,325 @@
       </c>
       <c r="F4">
         <f>B4</f>
-        <v>100</v>
-      </c>
-      <c r="G4" s="4">
-        <f>10/(B4/(B$5+1000))</f>
-        <v>270</v>
+        <v>1000</v>
+      </c>
+      <c r="G4">
+        <v>250</v>
       </c>
       <c r="H4" s="4">
-        <f>10/(C4/(C$5+1000))</f>
-        <v>126</v>
+        <f t="shared" ref="H4:J5" si="0">10/(B4/(B$5+1000))</f>
+        <v>57.999999999999993</v>
       </c>
       <c r="I4" s="4">
-        <f>10/(D4/(D$5+1000))</f>
-        <v>116.4</v>
+        <f t="shared" si="0"/>
+        <v>148</v>
       </c>
       <c r="J4" s="4">
-        <f t="shared" ref="J4:J5" si="0">10/(E4/(E$5+1000))</f>
-        <v>113.2</v>
+        <f t="shared" si="0"/>
+        <v>125.2</v>
       </c>
       <c r="K4" s="4">
+        <f t="shared" ref="K4:K5" si="1">10/(E4/(E$5+1000))</f>
+        <v>117.60000000000001</v>
+      </c>
+      <c r="L4" s="4">
         <f>10/(F4/(F$5+1000))</f>
-        <v>111.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20.38</v>
+      </c>
+      <c r="M4" s="4">
+        <f>10/(G4/(G$5+1000))</f>
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <f>SUM(B3:B4)</f>
-        <v>1700</v>
+        <v>4800</v>
       </c>
       <c r="C5">
         <f>SUM(C3:C4)</f>
-        <v>260</v>
+        <v>480</v>
       </c>
       <c r="D5">
         <f>SUM(D3:D4)</f>
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="E5">
         <f>SUM(E3:E4)</f>
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="F5">
         <f>SUM(F3:F4)</f>
-        <v>116</v>
-      </c>
-      <c r="G5" s="4">
-        <f>10/(B5/(B$5+1000))</f>
-        <v>15.882352941176469</v>
+        <v>1038</v>
+      </c>
+      <c r="G5">
+        <f>SUM(G3:G4)</f>
+        <v>440</v>
       </c>
       <c r="H5" s="4">
-        <f>10/(C5/(C$5+1000))</f>
-        <v>48.461538461538467</v>
+        <f t="shared" si="0"/>
+        <v>12.083333333333334</v>
       </c>
       <c r="I5" s="4">
-        <f>10/(D5/(D$5+1000))</f>
-        <v>70.975609756097555</v>
+        <f t="shared" si="0"/>
+        <v>30.833333333333332</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="0"/>
-        <v>85.757575757575765</v>
+        <v>49.682539682539684</v>
       </c>
       <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>66.818181818181813</v>
+      </c>
+      <c r="L5" s="4">
         <f>10/(F5/(F$5+1000))</f>
-        <v>96.206896551724142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19.633911368015415</v>
+      </c>
+      <c r="M5" s="4">
+        <f>10/(G5/(G$5+1000))</f>
+        <v>32.727272727272727</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="4">
-        <f>G3/$G3</f>
+      <c r="H7" s="4">
+        <f>H3/$H3</f>
         <v>1</v>
       </c>
-      <c r="H7" s="4">
-        <f>H3/$G3</f>
-        <v>4.666666666666667</v>
-      </c>
       <c r="I7" s="4">
-        <f>I3/$G3</f>
-        <v>10.777777777777779</v>
+        <f>I3/$H3</f>
+        <v>2.5517241379310343</v>
       </c>
       <c r="J7" s="4">
-        <f>J3/$G3</f>
-        <v>20.962962962962962</v>
+        <f>J3/$H3</f>
+        <v>5.3965517241379315</v>
       </c>
       <c r="K7" s="4">
-        <f>K3/$G3</f>
-        <v>41.333333333333336</v>
+        <f>K3/$H3</f>
+        <v>10.137931034482758</v>
+      </c>
+      <c r="L7" s="4">
+        <f>L3/$H3</f>
+        <v>35.137931034482754</v>
+      </c>
+      <c r="M7" s="4">
+        <f>M3/$H3</f>
+        <v>4.9655172413793096</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BEED52-9360-441C-98E3-86740D4CCB98}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <f>IF(A2="Indigenous",C2/4,C2/20)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>300</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D12" si="0">IF(A3="Indigenous",C3/4,C3/20)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>400</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>300</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>1000</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>1000</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>200</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>1000</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Reduced Person Frequency/reduced-person-frequency.xlsx
+++ b/Reduced Person Frequency/reduced-person-frequency.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis\Documents\GitHub\Endless-Sky-Plugins\Reduced Person Frequency\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96DCD65-A867-4167-8991-D9CB6DA5338C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1C8A92-44D7-436E-BA73-88AC8588D124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="3975" windowWidth="16230" windowHeight="15540" xr2:uid="{C3DF2A2D-949F-45DE-8691-6EFA1244CAAC}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{C3DF2A2D-949F-45DE-8691-6EFA1244CAAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Odds" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>Avg Minutes Btwn Appearances</t>
   </si>
@@ -113,6 +113,15 @@
   </si>
   <si>
     <t>Power of the People</t>
+  </si>
+  <si>
+    <t>Brick</t>
+  </si>
+  <si>
+    <t>Gefullte Taubenbrust</t>
+  </si>
+  <si>
+    <t>MasterOfGrey</t>
   </si>
 </sst>
 </file>
@@ -489,7 +498,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,51 +575,51 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>3800</v>
+        <v>4500</v>
       </c>
       <c r="C3">
         <f>B3/10</f>
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="D3">
         <f>B3/25</f>
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="E3">
         <f>B3/50</f>
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F3">
         <f>B3/100</f>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G3">
         <f>B3/20</f>
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="H3" s="4">
-        <f>10/(B3/(B$5+1000))</f>
-        <v>15.263157894736842</v>
+        <f t="shared" ref="H3:M3" si="0">10/(B3/(B$5+1000))</f>
+        <v>14.444444444444445</v>
       </c>
       <c r="I3" s="4">
-        <f>10/(C3/(C$5+1000))</f>
-        <v>38.94736842105263</v>
+        <f t="shared" si="0"/>
+        <v>34.444444444444443</v>
       </c>
       <c r="J3" s="4">
-        <f>10/(D3/(D$5+1000))</f>
-        <v>82.368421052631589</v>
+        <f t="shared" si="0"/>
+        <v>71.111111111111114</v>
       </c>
       <c r="K3" s="4">
-        <f>10/(E3/(E$5+1000))</f>
-        <v>154.73684210526315</v>
+        <f t="shared" si="0"/>
+        <v>132.22222222222223</v>
       </c>
       <c r="L3" s="4">
-        <f>10/(F3/(F$5+1000))</f>
-        <v>536.31578947368416</v>
+        <f t="shared" si="0"/>
+        <v>454.4444444444444</v>
       </c>
       <c r="M3" s="4">
-        <f>10/(G3/(G$5+1000))</f>
-        <v>75.78947368421052</v>
+        <f t="shared" si="0"/>
+        <v>65.555555555555557</v>
       </c>
       <c r="N3" s="4"/>
     </row>
@@ -638,28 +647,28 @@
         <v>250</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" ref="H4:J5" si="0">10/(B4/(B$5+1000))</f>
-        <v>57.999999999999993</v>
+        <f t="shared" ref="H4:J5" si="1">10/(B4/(B$5+1000))</f>
+        <v>65</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" si="0"/>
-        <v>148</v>
+        <f t="shared" si="1"/>
+        <v>155</v>
       </c>
       <c r="J4" s="4">
-        <f t="shared" si="0"/>
-        <v>125.2</v>
+        <f t="shared" si="1"/>
+        <v>128</v>
       </c>
       <c r="K4" s="4">
-        <f t="shared" ref="K4:K5" si="1">10/(E4/(E$5+1000))</f>
-        <v>117.60000000000001</v>
+        <f t="shared" ref="K4:K5" si="2">10/(E4/(E$5+1000))</f>
+        <v>118.99999999999999</v>
       </c>
       <c r="L4" s="4">
         <f>10/(F4/(F$5+1000))</f>
-        <v>20.38</v>
+        <v>20.45</v>
       </c>
       <c r="M4" s="4">
         <f>10/(G4/(G$5+1000))</f>
-        <v>57.6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -667,52 +676,52 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <f>SUM(B3:B4)</f>
-        <v>4800</v>
+        <f t="shared" ref="B5:G5" si="3">SUM(B3:B4)</f>
+        <v>5500</v>
       </c>
       <c r="C5">
-        <f>SUM(C3:C4)</f>
-        <v>480</v>
+        <f t="shared" si="3"/>
+        <v>550</v>
       </c>
       <c r="D5">
-        <f>SUM(D3:D4)</f>
-        <v>252</v>
+        <f t="shared" si="3"/>
+        <v>280</v>
       </c>
       <c r="E5">
-        <f>SUM(E3:E4)</f>
-        <v>176</v>
+        <f t="shared" si="3"/>
+        <v>190</v>
       </c>
       <c r="F5">
-        <f>SUM(F3:F4)</f>
-        <v>1038</v>
+        <f t="shared" si="3"/>
+        <v>1045</v>
       </c>
       <c r="G5">
-        <f>SUM(G3:G4)</f>
-        <v>440</v>
+        <f t="shared" si="3"/>
+        <v>475</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="0"/>
-        <v>12.083333333333334</v>
+        <f t="shared" si="1"/>
+        <v>11.818181818181818</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" si="0"/>
-        <v>30.833333333333332</v>
+        <f t="shared" si="1"/>
+        <v>28.18181818181818</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" si="0"/>
-        <v>49.682539682539684</v>
+        <f t="shared" si="1"/>
+        <v>45.714285714285715</v>
       </c>
       <c r="K5" s="4">
-        <f t="shared" si="1"/>
-        <v>66.818181818181813</v>
+        <f t="shared" si="2"/>
+        <v>62.631578947368425</v>
       </c>
       <c r="L5" s="4">
         <f>10/(F5/(F$5+1000))</f>
-        <v>19.633911368015415</v>
+        <v>19.569377990430624</v>
       </c>
       <c r="M5" s="4">
         <f>10/(G5/(G$5+1000))</f>
-        <v>32.727272727272727</v>
+        <v>31.05263157894737</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -720,28 +729,28 @@
         <v>10</v>
       </c>
       <c r="H7" s="4">
-        <f>H3/$H3</f>
+        <f t="shared" ref="H7:M7" si="4">H3/$H3</f>
         <v>1</v>
       </c>
       <c r="I7" s="4">
-        <f>I3/$H3</f>
-        <v>2.5517241379310343</v>
+        <f t="shared" si="4"/>
+        <v>2.3846153846153846</v>
       </c>
       <c r="J7" s="4">
-        <f>J3/$H3</f>
-        <v>5.3965517241379315</v>
+        <f t="shared" si="4"/>
+        <v>4.9230769230769234</v>
       </c>
       <c r="K7" s="4">
-        <f>K3/$H3</f>
-        <v>10.137931034482758</v>
+        <f t="shared" si="4"/>
+        <v>9.1538461538461533</v>
       </c>
       <c r="L7" s="4">
-        <f>L3/$H3</f>
-        <v>35.137931034482754</v>
+        <f t="shared" si="4"/>
+        <v>31.461538461538456</v>
       </c>
       <c r="M7" s="4">
-        <f>M3/$H3</f>
-        <v>4.9655172413793096</v>
+        <f t="shared" si="4"/>
+        <v>4.5384615384615383</v>
       </c>
     </row>
   </sheetData>
@@ -756,16 +765,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BEED52-9360-441C-98E3-86740D4CCB98}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D12"/>
+      <selection activeCell="C8" activeCellId="7" sqref="C10:C15 C2 C3 C4 C5 C6 C7 C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -810,7 +819,7 @@
         <v>300</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D12" si="0">IF(A3="Indigenous",C3/4,C3/20)</f>
+        <f t="shared" ref="D3:D15" si="0">IF(A3="Indigenous",C3/4,C3/20)</f>
         <v>15</v>
       </c>
     </row>
@@ -947,6 +956,51 @@
       <c r="D12">
         <f t="shared" si="0"/>
         <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <v>300</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>200</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>200</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
